--- a/docs/bes_variables.xlsx
+++ b/docs/bes_variables.xlsx
@@ -8,22 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meredithm/Documents/bes_policy_shift/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{535FB14E-E2BB-6442-B915-147505D915E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371D1407-10E1-E447-A6B1-73AE901D50AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="480" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variable overview" sheetId="1" r:id="rId1"/>
-    <sheet name="education_encoding" sheetId="2" r:id="rId2"/>
-    <sheet name="education_source_recoding" sheetId="3" r:id="rId3"/>
-    <sheet name="housing_encoding" sheetId="4" r:id="rId4"/>
-    <sheet name="housing_source_recoding" sheetId="5" r:id="rId5"/>
-    <sheet name="obj-hardship-job_encoding" sheetId="7" r:id="rId6"/>
-    <sheet name="obj-hardship-job_source_recodin" sheetId="8" r:id="rId7"/>
-    <sheet name="social-class_encoding" sheetId="9" r:id="rId8"/>
-    <sheet name="social-class_source_recoding" sheetId="10" r:id="rId9"/>
-    <sheet name="wave_recoding" sheetId="11" r:id="rId10"/>
+    <sheet name="wave-recoding" sheetId="11" r:id="rId2"/>
+    <sheet name="education-encoding" sheetId="2" r:id="rId3"/>
+    <sheet name="education-recoding" sheetId="3" r:id="rId4"/>
+    <sheet name="housing-encoding" sheetId="4" r:id="rId5"/>
+    <sheet name="housing-recoding" sheetId="5" r:id="rId6"/>
+    <sheet name="objhard_job-encoding" sheetId="7" r:id="rId7"/>
+    <sheet name="objhard_job-recoding" sheetId="8" r:id="rId8"/>
+    <sheet name="social_class-encoding" sheetId="9" r:id="rId9"/>
+    <sheet name="social_class-recoding" sheetId="10" r:id="rId10"/>
+    <sheet name="subjhard_income-encoding" sheetId="12" r:id="rId11"/>
+    <sheet name="subjhard_income-recoding" sheetId="13" r:id="rId12"/>
+    <sheet name="subjhard_job-encoding" sheetId="14" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'variable overview'!$A$1:$I$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="266">
   <si>
     <t>Topic</t>
   </si>
@@ -65,9 +71,6 @@
     <t>Recode</t>
   </si>
   <si>
-    <t>Missing Values</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Estimate</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -101,9 +101,6 @@
     <t>less granular than age; no wave indicators</t>
   </si>
   <si>
-    <t>education-level</t>
-  </si>
-  <si>
     <t>education</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>LVCF</t>
-  </si>
-  <si>
     <t>anyUni</t>
   </si>
   <si>
@@ -146,18 +140,12 @@
     <t>no wave indicators in the variable name, codebook specifies W15W16</t>
   </si>
   <si>
-    <t>housing-status</t>
-  </si>
-  <si>
     <t>housing</t>
   </si>
   <si>
     <t>Which of these applies to your home?</t>
   </si>
   <si>
-    <t>Leave Missing</t>
-  </si>
-  <si>
     <t>no wave indicators in the variable name, codebook specifies W10W15W16</t>
   </si>
   <si>
@@ -173,9 +161,6 @@
     <t>has one variable with no wave indicator, then W10-W16</t>
   </si>
   <si>
-    <t>income-level</t>
-  </si>
-  <si>
     <t>profile_gross_household</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <t>no wave indicators; dropped after discussion</t>
   </si>
   <si>
-    <t>left-right</t>
-  </si>
-  <si>
     <t>values1</t>
   </si>
   <si>
@@ -308,9 +290,6 @@
     <t>codebook warns against using this for waves 2-6</t>
   </si>
   <si>
-    <t>objective-hardship-income</t>
-  </si>
-  <si>
     <t>allSourceIncome</t>
   </si>
   <si>
@@ -359,9 +338,6 @@
     <t>no wave indicators</t>
   </si>
   <si>
-    <t>objective-hardship-job</t>
-  </si>
-  <si>
     <t>workingStatus</t>
   </si>
   <si>
@@ -383,9 +359,6 @@
     <t>only in W7, W11, W12, and W13</t>
   </si>
   <si>
-    <t>social-class</t>
-  </si>
-  <si>
     <t>subjClass</t>
   </si>
   <si>
@@ -437,9 +410,6 @@
     <t>has one variable with no wave indicator, then W7-W8, W12-W16</t>
   </si>
   <si>
-    <t>subjective-hardship-finsec</t>
-  </si>
-  <si>
     <t>econPersonalRetro</t>
   </si>
   <si>
@@ -449,9 +419,6 @@
     <t>econPersonalRetroW1,econPersonalRetroW2,econPersonalRetroW3,econPersonalRetroW4,econPersonalRetroW6,econPersonalRetroW7,econPersonalRetroW8,econPersonalRetroW10,econPersonalRetroW11,econPersonalRetroW12,econPersonalRetroW13,econPersonalRetroW14,econPersonalRetroW15,econPersonalRetroW16</t>
   </si>
   <si>
-    <t>decided to use prospective variables to measure insecurity</t>
-  </si>
-  <si>
     <t>changeIssue2</t>
   </si>
   <si>
@@ -500,9 +467,6 @@
     <t>riskPovertyW1,riskPovertyW2,riskPovertyW3,riskPovertyW4,riskPovertyW6,riskPovertyW7,riskPovertyW8,riskPovertyW9,riskPovertyW10,riskPovertyW11,riskPovertyW14,riskPovertyW15,riskPovertyW16</t>
   </si>
   <si>
-    <t>subjective-hardship-jobsec</t>
-  </si>
-  <si>
     <t>riskUnemployment</t>
   </si>
   <si>
@@ -521,9 +485,6 @@
     <t>goodTimePurchaseW1,goodTimePurchaseW2,goodTimePurchaseW3,goodTimePurchaseW4,goodTimePurchaseW6,goodTimePurchaseW7,goodTimePurchaseW8,goodTimePurchaseW9,goodTimePurchaseW10,goodTimePurchaseW11,goodTimePurchaseW14,goodTimePurchaseW15,goodTimePurchaseW16</t>
   </si>
   <si>
-    <t>decided to use the riskEcon questions which directly ask question of interest</t>
-  </si>
-  <si>
     <t>econPersonalProsp</t>
   </si>
   <si>
@@ -816,6 +777,72 @@
   </si>
   <si>
     <t>days_since_20140101</t>
+  </si>
+  <si>
+    <t>Situation got better</t>
+  </si>
+  <si>
+    <t>Situation stayed the same</t>
+  </si>
+  <si>
+    <t>Situation got worse</t>
+  </si>
+  <si>
+    <t>Got a lot worse</t>
+  </si>
+  <si>
+    <t>Got a little worse</t>
+  </si>
+  <si>
+    <t>Stayed the same</t>
+  </si>
+  <si>
+    <t>Got a little better</t>
+  </si>
+  <si>
+    <t>Got a lot better</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Security got worse</t>
+  </si>
+  <si>
+    <t>Security stayed the same</t>
+  </si>
+  <si>
+    <t>Security got better</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>social_class</t>
+  </si>
+  <si>
+    <t>left_right</t>
+  </si>
+  <si>
+    <t>subjhard_income</t>
+  </si>
+  <si>
+    <t>subjhard_job</t>
+  </si>
+  <si>
+    <t>decided to use the retrospective question which directly ask question of interest</t>
+  </si>
+  <si>
+    <t>decided to use the retrospective question</t>
+  </si>
+  <si>
+    <t>objhard_income</t>
+  </si>
+  <si>
+    <t>objhard_job</t>
+  </si>
+  <si>
+    <t>this has seemingly overlapping wave variables.</t>
   </si>
 </sst>
 </file>
@@ -825,7 +852,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -842,6 +869,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -971,7 +1011,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1067,6 +1107,27 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2228,28 +2289,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="30.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21" style="2" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.33203125" style="2"/>
+    <col min="9" max="9" width="44.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2277,1073 +2337,1344 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>51</v>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F15" s="8">
         <v>1</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>51</v>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>51</v>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F19" s="8">
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>51</v>
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>51</v>
+    </row>
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F21" s="8">
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>89</v>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="I22" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>89</v>
+      <c r="I23" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F24" s="8">
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>89</v>
+    </row>
+    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F25" s="8">
         <v>1</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F26" s="8">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>106</v>
+    </row>
+    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="37" t="s">
+        <v>264</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F27" s="8">
         <v>1</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="37" t="s">
+        <v>264</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F28" s="8">
         <v>1</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="37" t="s">
+        <v>257</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F29" s="8">
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>114</v>
+    </row>
+    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="37" t="s">
+        <v>257</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F31" s="8">
         <v>1</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="37" t="s">
+        <v>257</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F32" s="8">
         <v>1</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>132</v>
+    </row>
+    <row r="34" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>132</v>
+    </row>
+    <row r="35" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>132</v>
+    </row>
+    <row r="36" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F36" s="8">
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>132</v>
+    </row>
+    <row r="37" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>153</v>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F38" s="8">
         <v>1</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
-        <v>132</v>
+      <c r="H38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F39" s="8">
         <v>0</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>160</v>
+      <c r="G39" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>132</v>
+    </row>
+    <row r="40" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>160</v>
+      <c r="G40" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I40" xr:uid="{879A2D20-F0CF-E343-A0AE-A0053C5D4FCB}"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24" t="str">
+        <f>VLOOKUP(D2,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>High managerial, administrative or professional</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="27">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="18">
+        <v>2</v>
+      </c>
+      <c r="E3" s="28" t="str">
+        <f>VLOOKUP(D3,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Intermediate managerial, administrative or professional</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="27">
+        <v>3</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3</v>
+      </c>
+      <c r="E4" s="28" t="str">
+        <f>VLOOKUP(D4,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Supervisory, clerical and junior managerial, administrative or professional</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="27">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="18">
+        <v>3</v>
+      </c>
+      <c r="E5" s="28" t="str">
+        <f>VLOOKUP(D5,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Supervisory, clerical and junior managerial, administrative or professional</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="27">
+        <v>5</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="18">
+        <v>3</v>
+      </c>
+      <c r="E6" s="28" t="str">
+        <f>VLOOKUP(D6,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Supervisory, clerical and junior managerial, administrative or professional</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="27">
+        <v>6</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="18">
+        <v>4</v>
+      </c>
+      <c r="E7" s="28" t="str">
+        <f>VLOOKUP(D7,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Skilled manual workers</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="27">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="18">
+        <v>5</v>
+      </c>
+      <c r="E8" s="28" t="str">
+        <f>VLOOKUP(D8,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Semi- and unskilled manual workers</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="27">
+        <v>8</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="18">
+        <v>7</v>
+      </c>
+      <c r="E9" s="28" t="str">
+        <f>VLOOKUP(D9,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="27">
+        <v>9</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="18">
+        <v>7</v>
+      </c>
+      <c r="E10" s="28" t="str">
+        <f>VLOOKUP(D10,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28" t="str">
+        <f>VLOOKUP(D11,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>High managerial, administrative or professional</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="28" t="str">
+        <f>VLOOKUP(D12,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Intermediate managerial, administrative or professional</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="27">
+        <v>3</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3</v>
+      </c>
+      <c r="E13" s="28" t="str">
+        <f>VLOOKUP(D13,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Supervisory, clerical and junior managerial, administrative or professional</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="27">
+        <v>4</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="18">
+        <v>4</v>
+      </c>
+      <c r="E14" s="28" t="str">
+        <f>VLOOKUP(D14,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Skilled manual workers</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="27">
+        <v>5</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="18">
+        <v>5</v>
+      </c>
+      <c r="E15" s="28" t="str">
+        <f>VLOOKUP(D15,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>Semi- and unskilled manual workers</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="27">
+        <v>6</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="18">
+        <v>6</v>
+      </c>
+      <c r="E16" s="28" t="str">
+        <f>VLOOKUP(D16,'social_class-encoding'!A1:B8,2,FALSE)</f>
+        <v>State pensioners, casual or lowest grade workers, unemployed with state benefits only</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="27">
+        <v>7</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="27">
+        <v>8</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -3354,7 +3685,251 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73875259-B66D-EF46-8634-D6EAC04DF6C5}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C6C7E4-B5A1-AD4F-9683-67D60F1D4EF2}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35" t="str">
+        <f>VLOOKUP(D2, 'subjhard_income-encoding'!$A$1:$B$4,2,FALSE)</f>
+        <v>Situation got worse</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="27">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35" t="str">
+        <f>VLOOKUP(D3, 'subjhard_income-encoding'!$A$1:$B$4,2,FALSE)</f>
+        <v>Situation got worse</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="27">
+        <v>3</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="35" t="str">
+        <f>VLOOKUP(D4, 'subjhard_income-encoding'!$A$1:$B$4,2,FALSE)</f>
+        <v>Situation stayed the same</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="27">
+        <v>4</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="18">
+        <v>3</v>
+      </c>
+      <c r="E5" s="35" t="str">
+        <f>VLOOKUP(D5, 'subjhard_income-encoding'!$A$1:$B$4,2,FALSE)</f>
+        <v>Situation got better</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="27">
+        <v>5</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="18">
+        <v>3</v>
+      </c>
+      <c r="E6" s="35" t="str">
+        <f>VLOOKUP(D6, 'subjhard_income-encoding'!$A$1:$B$4,2,FALSE)</f>
+        <v>Situation got better</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="27">
+        <v>9999</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A872977F-E623-8543-93F4-C700E4E8E61D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3362,7 +3937,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3376,19 +3951,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F1" s="10"/>
     </row>
@@ -3723,7 +4298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3744,13 +4319,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3758,10 +4333,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3769,10 +4344,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -3780,10 +4355,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3791,10 +4366,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3802,10 +4377,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3813,7 +4388,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C7" s="19"/>
     </row>
@@ -3826,7 +4401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3850,367 +4425,367 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D2" s="25">
         <v>1</v>
       </c>
       <c r="E2" s="24" t="str">
-        <f>VLOOKUP(D2,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D2,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Primary or Still Student</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D3" s="18">
         <v>3</v>
       </c>
       <c r="E3" s="28" t="str">
-        <f>VLOOKUP(D3,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D3,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>High Secondary-Vocational</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="27">
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D4" s="18">
         <v>3</v>
       </c>
       <c r="E4" s="28" t="str">
-        <f>VLOOKUP(D4,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D4,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>High Secondary-Vocational</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="27">
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
       </c>
       <c r="E5" s="28" t="str">
-        <f>VLOOKUP(D5,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D5,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>High Secondary-Vocational</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="27">
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
       </c>
       <c r="E6" s="28" t="str">
-        <f>VLOOKUP(D6,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D6,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>High Secondary-Vocational</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="27">
         <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D7" s="18">
         <v>4</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>VLOOKUP(D7,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D7,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Higher Vocational</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="27">
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D8" s="18">
         <v>3</v>
       </c>
       <c r="E8" s="28" t="str">
-        <f>VLOOKUP(D8,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D8,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>High Secondary-Vocational</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="27">
         <v>8</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f>VLOOKUP(D9,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D9,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>High Secondary-Vocational</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="27">
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D10" s="18">
         <v>2</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f>VLOOKUP(D10,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D10,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Low Secondary-Vocational</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="27">
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f>VLOOKUP(D11,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D11,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Low Secondary-Vocational</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="27">
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D12" s="18">
         <v>3</v>
       </c>
       <c r="E12" s="28" t="str">
-        <f>VLOOKUP(D12,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D12,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>High Secondary-Vocational</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="27">
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D13" s="18">
         <v>3</v>
       </c>
       <c r="E13" s="28" t="str">
-        <f>VLOOKUP(D13,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D13,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>High Secondary-Vocational</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="27">
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D14" s="18">
         <v>4</v>
       </c>
       <c r="E14" s="28" t="str">
-        <f>VLOOKUP(D14,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D14,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Higher Vocational</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="27">
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D15" s="18">
         <v>4</v>
       </c>
       <c r="E15" s="28" t="str">
-        <f>VLOOKUP(D15,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D15,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Higher Vocational</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="27">
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D16" s="18">
         <v>5</v>
       </c>
       <c r="E16" s="28" t="str">
-        <f>VLOOKUP(D16,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D16,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Tertiary Degree</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="27">
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D17" s="18">
         <v>5</v>
       </c>
       <c r="E17" s="28" t="str">
-        <f>VLOOKUP(D17,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D17,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Tertiary Degree</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="27">
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D18" s="18">
         <v>5</v>
       </c>
       <c r="E18" s="28" t="str">
-        <f>VLOOKUP(D18,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D18,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Tertiary Degree</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" s="27">
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D19" s="18">
         <v>5</v>
       </c>
       <c r="E19" s="28" t="str">
-        <f>VLOOKUP(D19,education_encoding!A1:C7,2,FALSE)</f>
+        <f>VLOOKUP(D19,'education-encoding'!A1:C7,2,FALSE)</f>
         <v>Tertiary Degree</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="27">
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="27">
         <v>20</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="19"/>
@@ -4224,7 +4799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4244,10 +4819,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4255,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4263,7 +4838,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4271,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4279,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4287,7 +4862,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4319,295 +4894,295 @@
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D2" s="25">
         <v>4</v>
       </c>
       <c r="E2" s="24" t="str">
-        <f>VLOOKUP(D2,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D2,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Owner</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D3" s="18">
         <v>1</v>
       </c>
       <c r="E3" s="28" t="str">
-        <f>VLOOKUP(D3,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D3,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Mortgage</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B4" s="27">
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D4" s="18">
         <v>3</v>
       </c>
       <c r="E4" s="28" t="str">
-        <f>VLOOKUP(D4,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D4,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Rented</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="27">
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
       </c>
       <c r="E5" s="28" t="str">
-        <f>VLOOKUP(D5,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D5,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Rented</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" s="27">
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
       </c>
       <c r="E6" s="28" t="str">
-        <f>VLOOKUP(D6,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D6,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Rented</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7" s="27">
         <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8" s="27">
         <v>1</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D8" s="18">
         <v>4</v>
       </c>
       <c r="E8" s="28" t="str">
-        <f>VLOOKUP(D8,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D8,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Owner</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" s="27">
         <v>2</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f>VLOOKUP(D9,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D9,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Mortgage</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" s="27">
         <v>3</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D10" s="18">
         <v>4</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f>VLOOKUP(D10,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D10,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Owner</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" s="27">
         <v>4</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D11" s="18">
         <v>3</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f>VLOOKUP(D11,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D11,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Rented</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B12" s="27">
         <v>5</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D12" s="18">
         <v>3</v>
       </c>
       <c r="E12" s="28" t="str">
-        <f>VLOOKUP(D12,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D12,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Rented</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13" s="27">
         <v>6</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D13" s="18">
         <v>3</v>
       </c>
       <c r="E13" s="28" t="str">
-        <f>VLOOKUP(D13,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D13,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Rented</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="27">
         <v>7</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D14" s="18">
         <v>2</v>
       </c>
       <c r="E14" s="28" t="str">
-        <f>VLOOKUP(D14,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D14,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Social</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" s="27">
         <v>8</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
       </c>
       <c r="E15" s="28" t="str">
-        <f>VLOOKUP(D15,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D15,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Social</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B16" s="27">
         <v>9</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D16" s="18">
         <v>5</v>
       </c>
       <c r="E16" s="28" t="str">
-        <f>VLOOKUP(D16,housing_encoding!A1:B6,2,FALSE)</f>
+        <f>VLOOKUP(D16,'housing-encoding'!A1:B6,2,FALSE)</f>
         <v>Other</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B17" s="27">
         <v>9999</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -4621,15 +5196,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4642,10 +5217,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4653,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4661,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4669,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4677,7 +5252,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4685,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4693,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4701,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4709,7 +5284,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4721,7 +5296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4745,416 +5320,325 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D2" s="25">
         <v>1</v>
       </c>
       <c r="E2" s="24" t="str">
-        <f>VLOOKUP(D2,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D2,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Working full time (30 or more hours per week)</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D3" s="18">
         <v>2</v>
       </c>
       <c r="E3" s="28" t="str">
-        <f>VLOOKUP(D3,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D3,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Working part time (8-29 hours a week)</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B4" s="27">
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D4" s="18">
         <v>3</v>
       </c>
       <c r="E4" s="28" t="str">
-        <f>VLOOKUP(D4,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D4,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Working part time (less than 8 hours a week)</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B5" s="27">
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D5" s="18">
         <v>5</v>
       </c>
       <c r="E5" s="28" t="str">
-        <f>VLOOKUP(D5,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D5,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Full time student</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B6" s="27">
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D6" s="18">
         <v>6</v>
       </c>
       <c r="E6" s="28" t="str">
-        <f>VLOOKUP(D6,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D6,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Retired</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B7" s="27">
         <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D7" s="18">
         <v>4</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>VLOOKUP(D7,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D7,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Unemployed and looking for work</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B8" s="27">
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D8" s="18">
         <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
-        <f>VLOOKUP(D8,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D8,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Not in paid work for any other reason</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B9" s="27">
         <v>8</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D9" s="18">
         <v>8</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f>VLOOKUP(D9,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D9,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Other</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f>VLOOKUP(D10,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D10,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Working full time (30 or more hours per week)</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B11" s="27">
         <v>2</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f>VLOOKUP(D11,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D11,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Working part time (8-29 hours a week)</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B12" s="27">
         <v>3</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D12" s="18">
         <v>3</v>
       </c>
       <c r="E12" s="28" t="str">
-        <f>VLOOKUP(D12,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D12,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Working part time (less than 8 hours a week)</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B13" s="27">
         <v>4</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D13" s="18">
         <v>4</v>
       </c>
       <c r="E13" s="28" t="str">
-        <f>VLOOKUP(D13,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D13,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Unemployed and looking for work</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B14" s="27">
         <v>5</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D14" s="18">
         <v>5</v>
       </c>
       <c r="E14" s="28" t="str">
-        <f>VLOOKUP(D14,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D14,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Full time student</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B15" s="27">
         <v>6</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D15" s="18">
         <v>5</v>
       </c>
       <c r="E15" s="28" t="str">
-        <f>VLOOKUP(D15,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D15,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Full time student</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B16" s="27">
         <v>7</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D16" s="18">
         <v>6</v>
       </c>
       <c r="E16" s="28" t="str">
-        <f>VLOOKUP(D16,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D16,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Retired</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B17" s="27">
         <v>8</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D17" s="18">
         <v>7</v>
       </c>
       <c r="E17" s="28" t="str">
-        <f>VLOOKUP(D17,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D17,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Not in paid work for any other reason</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B18" s="27">
         <v>9</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D18" s="18">
         <v>8</v>
       </c>
       <c r="E18" s="28" t="str">
-        <f>VLOOKUP(D18,'obj-hardship-job_encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D18,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
         <v>Other</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="16.33203125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="16.33203125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="68" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="68" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5167,339 +5651,87 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="D16:E16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="16.33203125" style="11"/>
+    <col min="1" max="1" width="24.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="16.33203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1</v>
-      </c>
-      <c r="E2" s="24" t="str">
-        <f>VLOOKUP(D2,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>High managerial, administrative or professional</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="27">
+      <c r="B2" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="18">
-        <v>2</v>
-      </c>
-      <c r="E3" s="28" t="str">
-        <f>VLOOKUP(D3,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Intermediate managerial, administrative or professional</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="27">
+      <c r="B3" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="18">
-        <v>3</v>
-      </c>
-      <c r="E4" s="28" t="str">
-        <f>VLOOKUP(D4,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Supervisory, clerical and junior managerial, administrative or professional</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="B4" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="18">
-        <v>3</v>
-      </c>
-      <c r="E5" s="28" t="str">
-        <f>VLOOKUP(D5,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Supervisory, clerical and junior managerial, administrative or professional</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="B5" s="31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="18">
-        <v>3</v>
-      </c>
-      <c r="E6" s="28" t="str">
-        <f>VLOOKUP(D6,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Supervisory, clerical and junior managerial, administrative or professional</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="B6" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="18">
-        <v>4</v>
-      </c>
-      <c r="E7" s="28" t="str">
-        <f>VLOOKUP(D7,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Skilled manual workers</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="B7" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="18">
-        <v>5</v>
-      </c>
-      <c r="E8" s="28" t="str">
-        <f>VLOOKUP(D8,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Semi- and unskilled manual workers</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="27">
-        <v>8</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="18">
-        <v>7</v>
-      </c>
-      <c r="E9" s="28" t="str">
-        <f>VLOOKUP(D9,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Other</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="27">
-        <v>9</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="18">
-        <v>7</v>
-      </c>
-      <c r="E10" s="28" t="str">
-        <f>VLOOKUP(D10,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Other</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="27">
-        <v>1</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
-      <c r="E11" s="28" t="str">
-        <f>VLOOKUP(D11,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>High managerial, administrative or professional</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="27">
-        <v>2</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2</v>
-      </c>
-      <c r="E12" s="28" t="str">
-        <f>VLOOKUP(D12,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Intermediate managerial, administrative or professional</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="27">
-        <v>3</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="D13" s="18">
-        <v>3</v>
-      </c>
-      <c r="E13" s="28" t="str">
-        <f>VLOOKUP(D13,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Supervisory, clerical and junior managerial, administrative or professional</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="27">
-        <v>4</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="18">
-        <v>4</v>
-      </c>
-      <c r="E14" s="28" t="str">
-        <f>VLOOKUP(D14,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Skilled manual workers</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="27">
-        <v>5</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="18">
-        <v>5</v>
-      </c>
-      <c r="E15" s="28" t="str">
-        <f>VLOOKUP(D15,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>Semi- and unskilled manual workers</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="27">
-        <v>6</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="18">
-        <v>6</v>
-      </c>
-      <c r="E16" s="28" t="str">
-        <f>VLOOKUP(D16,'social-class_encoding'!A1:B8,2,FALSE)</f>
-        <v>State pensioners, casual or lowest grade workers, unemployed with state benefits only</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="27">
-        <v>7</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="27">
-        <v>8</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="29"/>
+      <c r="B8" s="31" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/docs/bes_variables.xlsx
+++ b/docs/bes_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meredithm/Documents/bes_policy_shift/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371D1407-10E1-E447-A6B1-73AE901D50AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68260C0E-C367-5E40-A156-C927E8069CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="480" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="2080" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variable overview" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="education-recoding" sheetId="3" r:id="rId4"/>
     <sheet name="housing-encoding" sheetId="4" r:id="rId5"/>
     <sheet name="housing-recoding" sheetId="5" r:id="rId6"/>
-    <sheet name="objhard_job-encoding" sheetId="7" r:id="rId7"/>
-    <sheet name="objhard_job-recoding" sheetId="8" r:id="rId8"/>
+    <sheet name="working_status-encoding" sheetId="7" r:id="rId7"/>
+    <sheet name="working_status-recoding" sheetId="8" r:id="rId8"/>
     <sheet name="social_class-encoding" sheetId="9" r:id="rId9"/>
     <sheet name="social_class-recoding" sheetId="10" r:id="rId10"/>
     <sheet name="subjhard_income-encoding" sheetId="12" r:id="rId11"/>
@@ -332,9 +332,6 @@
     <t>income support or family credit</t>
   </si>
   <si>
-    <t>Will compute difference and encode 1: more than 25% drop, 2: between 25% drop and 25% increase, 3: more than 25% increase</t>
-  </si>
-  <si>
     <t>no wave indicators</t>
   </si>
   <si>
@@ -843,6 +840,9 @@
   </si>
   <si>
     <t>this has seemingly overlapping wave variables.</t>
+  </si>
+  <si>
+    <t>will compute difference and use shift as computed column</t>
   </si>
 </sst>
 </file>
@@ -863,12 +863,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2286,13 +2288,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2302,7 +2304,7 @@
     <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="30.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="44.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" style="2" customWidth="1"/>
@@ -2363,7 +2365,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2386,7 +2388,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2435,10 +2437,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>18</v>
       </c>
@@ -2546,7 +2548,7 @@
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>38</v>
@@ -2571,9 +2573,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>41</v>
@@ -2598,7 +2600,7 @@
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>44</v>
@@ -2623,7 +2625,7 @@
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>44</v>
@@ -2648,7 +2650,7 @@
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>44</v>
@@ -2673,7 +2675,7 @@
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>44</v>
@@ -2698,7 +2700,7 @@
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>44</v>
@@ -2721,9 +2723,9 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>60</v>
@@ -2746,9 +2748,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>64</v>
@@ -2771,9 +2773,9 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>69</v>
@@ -2796,9 +2798,9 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>74</v>
@@ -2821,9 +2823,9 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>77</v>
@@ -2846,9 +2848,9 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>81</v>
@@ -2873,9 +2875,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>81</v>
@@ -2900,9 +2902,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>81</v>
@@ -2929,7 +2931,7 @@
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>38</v>
@@ -2947,16 +2949,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>41</v>
@@ -2974,26 +2976,26 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="F27" s="8">
         <v>1</v>
@@ -3006,19 +3008,19 @@
     </row>
     <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="F28" s="8">
         <v>1</v>
@@ -3028,74 +3030,74 @@
         <v>21</v>
       </c>
       <c r="I28" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="F29" s="8">
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="F31" s="8">
         <v>1</v>
@@ -3108,19 +3110,19 @@
     </row>
     <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="F32" s="8">
         <v>1</v>
@@ -3130,24 +3132,24 @@
         <v>21</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="F33" s="8">
         <v>1</v>
@@ -3158,96 +3160,96 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="F36" s="8">
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="F37" s="8">
         <v>0</v>
@@ -3258,19 +3260,19 @@
     </row>
     <row r="38" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="F38" s="8">
         <v>1</v>
@@ -3281,58 +3283,64 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="F39" s="8">
         <v>0</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I40" xr:uid="{879A2D20-F0CF-E343-A0AE-A0053C5D4FCB}"/>
+  <autoFilter ref="A1:I40" xr:uid="{879A2D20-F0CF-E343-A0AE-A0053C5D4FCB}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -3365,30 +3373,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="25">
         <v>1</v>
@@ -3400,13 +3408,13 @@
     </row>
     <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" s="18">
         <v>2</v>
@@ -3418,13 +3426,13 @@
     </row>
     <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="27">
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="18">
         <v>3</v>
@@ -3436,13 +3444,13 @@
     </row>
     <row r="5" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="27">
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
@@ -3454,13 +3462,13 @@
     </row>
     <row r="6" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="27">
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
@@ -3472,13 +3480,13 @@
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="27">
         <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="18">
         <v>4</v>
@@ -3490,13 +3498,13 @@
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="27">
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="18">
         <v>5</v>
@@ -3508,13 +3516,13 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="27">
         <v>8</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="18">
         <v>7</v>
@@ -3526,13 +3534,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="27">
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="18">
         <v>7</v>
@@ -3544,13 +3552,13 @@
     </row>
     <row r="11" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="27">
         <v>1</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
@@ -3562,13 +3570,13 @@
     </row>
     <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="27">
         <v>2</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -3580,13 +3588,13 @@
     </row>
     <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="27">
         <v>3</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="18">
         <v>3</v>
@@ -3598,13 +3606,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="27">
         <v>4</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="18">
         <v>4</v>
@@ -3616,13 +3624,13 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="27">
         <v>5</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="18">
         <v>5</v>
@@ -3634,13 +3642,13 @@
     </row>
     <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="27">
         <v>6</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="18">
         <v>6</v>
@@ -3652,26 +3660,26 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="27">
         <v>7</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="27">
         <v>8</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="29"/>
@@ -3700,10 +3708,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -3711,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -3719,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -3727,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3755,30 +3763,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="25">
         <v>1</v>
@@ -3790,13 +3798,13 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="18">
         <v>1</v>
@@ -3808,13 +3816,13 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="27">
         <v>3</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="18">
         <v>2</v>
@@ -3826,13 +3834,13 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="27">
         <v>4</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
@@ -3844,13 +3852,13 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="27">
         <v>5</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
@@ -3862,13 +3870,13 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="27">
         <v>9999</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="35"/>
@@ -3894,10 +3902,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -3905,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -3913,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -3921,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3951,19 +3959,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="F1" s="10"/>
     </row>
@@ -4319,13 +4327,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4333,10 +4341,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4344,10 +4352,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>154</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -4355,10 +4363,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4366,10 +4374,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -4377,10 +4385,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4388,7 +4396,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="19"/>
     </row>
@@ -4425,19 +4433,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4448,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="25">
         <v>1</v>
@@ -4466,7 +4474,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="18">
         <v>3</v>
@@ -4484,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="18">
         <v>3</v>
@@ -4502,7 +4510,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
@@ -4520,7 +4528,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
@@ -4538,7 +4546,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="18">
         <v>4</v>
@@ -4556,7 +4564,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="18">
         <v>3</v>
@@ -4574,7 +4582,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -4592,7 +4600,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="18">
         <v>2</v>
@@ -4610,7 +4618,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -4628,7 +4636,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="18">
         <v>3</v>
@@ -4646,7 +4654,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="18">
         <v>3</v>
@@ -4664,7 +4672,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="18">
         <v>4</v>
@@ -4682,7 +4690,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="18">
         <v>4</v>
@@ -4700,7 +4708,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="18">
         <v>5</v>
@@ -4718,7 +4726,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="18">
         <v>5</v>
@@ -4736,7 +4744,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="18">
         <v>5</v>
@@ -4754,7 +4762,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D19" s="18">
         <v>5</v>
@@ -4772,7 +4780,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="19"/>
@@ -4785,7 +4793,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="19"/>
@@ -4819,10 +4827,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4830,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4838,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4846,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4854,7 +4862,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -4862,7 +4870,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4894,19 +4902,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4917,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="25">
         <v>4</v>
@@ -4935,7 +4943,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" s="18">
         <v>1</v>
@@ -4953,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="18">
         <v>3</v>
@@ -4971,7 +4979,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
@@ -4989,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
@@ -5007,7 +5015,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5020,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="18">
         <v>4</v>
@@ -5038,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
@@ -5056,7 +5064,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="18">
         <v>4</v>
@@ -5074,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="18">
         <v>3</v>
@@ -5092,7 +5100,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="18">
         <v>3</v>
@@ -5110,7 +5118,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="18">
         <v>3</v>
@@ -5128,7 +5136,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" s="18">
         <v>2</v>
@@ -5146,7 +5154,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -5164,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="18">
         <v>5</v>
@@ -5182,7 +5190,7 @@
         <v>9999</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -5217,10 +5225,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5228,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5236,7 +5244,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5244,7 +5252,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5252,7 +5260,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5260,7 +5268,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5268,7 +5276,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5276,7 +5284,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -5284,7 +5292,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5320,324 +5328,324 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" s="25">
         <v>1</v>
       </c>
       <c r="E2" s="24" t="str">
-        <f>VLOOKUP(D2,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D2,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Working full time (30 or more hours per week)</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="27">
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="18">
         <v>2</v>
       </c>
       <c r="E3" s="28" t="str">
-        <f>VLOOKUP(D3,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D3,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Working part time (8-29 hours a week)</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="27">
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="18">
         <v>3</v>
       </c>
       <c r="E4" s="28" t="str">
-        <f>VLOOKUP(D4,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D4,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Working part time (less than 8 hours a week)</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="27">
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="18">
         <v>5</v>
       </c>
       <c r="E5" s="28" t="str">
-        <f>VLOOKUP(D5,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D5,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Full time student</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="27">
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="18">
         <v>6</v>
       </c>
       <c r="E6" s="28" t="str">
-        <f>VLOOKUP(D6,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D6,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Retired</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="27">
         <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="18">
         <v>4</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>VLOOKUP(D7,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D7,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Unemployed and looking for work</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="27">
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="18">
         <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
-        <f>VLOOKUP(D8,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D8,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Not in paid work for any other reason</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="27">
         <v>8</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="18">
         <v>8</v>
       </c>
       <c r="E9" s="28" t="str">
-        <f>VLOOKUP(D9,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D9,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Other</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f>VLOOKUP(D10,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D10,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Working full time (30 or more hours per week)</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="27">
         <v>2</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f>VLOOKUP(D11,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D11,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Working part time (8-29 hours a week)</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="27">
         <v>3</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="18">
         <v>3</v>
       </c>
       <c r="E12" s="28" t="str">
-        <f>VLOOKUP(D12,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D12,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Working part time (less than 8 hours a week)</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="27">
         <v>4</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="18">
         <v>4</v>
       </c>
       <c r="E13" s="28" t="str">
-        <f>VLOOKUP(D13,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D13,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Unemployed and looking for work</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="27">
         <v>5</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="18">
         <v>5</v>
       </c>
       <c r="E14" s="28" t="str">
-        <f>VLOOKUP(D14,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D14,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Full time student</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="27">
         <v>6</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15" s="18">
         <v>5</v>
       </c>
       <c r="E15" s="28" t="str">
-        <f>VLOOKUP(D15,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D15,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Full time student</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="27">
         <v>7</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" s="18">
         <v>6</v>
       </c>
       <c r="E16" s="28" t="str">
-        <f>VLOOKUP(D16,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D16,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Retired</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="27">
         <v>8</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" s="18">
         <v>7</v>
       </c>
       <c r="E17" s="28" t="str">
-        <f>VLOOKUP(D17,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D17,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Not in paid work for any other reason</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="27">
         <v>9</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="18">
         <v>8</v>
       </c>
       <c r="E18" s="28" t="str">
-        <f>VLOOKUP(D18,'objhard_job-encoding'!A1:B9,2,FALSE)</f>
+        <f>VLOOKUP(D18,'working_status-encoding'!A1:B9,2,FALSE)</f>
         <v>Other</v>
       </c>
     </row>
@@ -5671,10 +5679,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
@@ -5682,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
@@ -5690,7 +5698,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.15">
@@ -5698,7 +5706,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -5706,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -5714,7 +5722,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42" x14ac:dyDescent="0.15">
@@ -5722,7 +5730,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -5730,7 +5738,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
